--- a/po_analysis_by_asin/B0BRRTR27F_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRRTR27F_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,73 +564,49 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45088.99999999999</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>128</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45109.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>94</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45137.99999999999</v>
-      </c>
-      <c r="B23" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45144.99999999999</v>
-      </c>
-      <c r="B24" t="n">
         <v>2</v>
       </c>
     </row>
@@ -702,7 +678,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>330</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">

--- a/po_analysis_by_asin/B0BRRTR27F_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRRTR27F_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -637,7 +638,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -695,6 +696,439 @@
       </c>
       <c r="B8" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>154</v>
+      </c>
+      <c r="C2" t="n">
+        <v>66.64667518387783</v>
+      </c>
+      <c r="D2" t="n">
+        <v>245.2917163484848</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>113</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.66901044722736</v>
+      </c>
+      <c r="D3" t="n">
+        <v>206.0355957847412</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>108</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18.1646399270352</v>
+      </c>
+      <c r="D4" t="n">
+        <v>196.0562441034052</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>102</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.575117671241163</v>
+      </c>
+      <c r="D5" t="n">
+        <v>196.8211233126173</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>96</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.718584329734803</v>
+      </c>
+      <c r="D6" t="n">
+        <v>182.8771650578433</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.013426710704346</v>
+      </c>
+      <c r="D7" t="n">
+        <v>177.8848702301342</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>84</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-8.199653316591911</v>
+      </c>
+      <c r="D8" t="n">
+        <v>170.4326461896836</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-13.2508490680484</v>
+      </c>
+      <c r="D9" t="n">
+        <v>164.1709991846542</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>67</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-25.46044564532125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>156.8764118863134</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>61</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-24.59916978179405</v>
+      </c>
+      <c r="D11" t="n">
+        <v>150.6234302824076</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>55</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-37.29497393621009</v>
+      </c>
+      <c r="D12" t="n">
+        <v>149.5496867032041</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-41.68327971620437</v>
+      </c>
+      <c r="D13" t="n">
+        <v>137.72042972618</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>44</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-40.53864606650357</v>
+      </c>
+      <c r="D14" t="n">
+        <v>131.0141990782542</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>38</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-47.39856438162433</v>
+      </c>
+      <c r="D15" t="n">
+        <v>126.3924545461688</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-75.56567095586924</v>
+      </c>
+      <c r="D16" t="n">
+        <v>106.1266264402587</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-78.89004383049351</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100.7535135411421</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-82.90860802206824</v>
+      </c>
+      <c r="D18" t="n">
+        <v>97.00222412033571</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-89.29047862616092</v>
+      </c>
+      <c r="D19" t="n">
+        <v>83.47932226721601</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-96.64985894986765</v>
+      </c>
+      <c r="D20" t="n">
+        <v>82.18657855625456</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-104.5604476617452</v>
+      </c>
+      <c r="D21" t="n">
+        <v>71.18954415786791</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-103.6408580790045</v>
+      </c>
+      <c r="D22" t="n">
+        <v>60.75939136988941</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-116.4084572110623</v>
+      </c>
+      <c r="D23" t="n">
+        <v>62.27176552684252</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-119.2862881485677</v>
+      </c>
+      <c r="D24" t="n">
+        <v>55.33959952294895</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-121.6553053385115</v>
+      </c>
+      <c r="D25" t="n">
+        <v>52.33076441433511</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-130.0593672999628</v>
+      </c>
+      <c r="D26" t="n">
+        <v>47.8453093169168</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-132.164936462561</v>
+      </c>
+      <c r="D27" t="n">
+        <v>36.90865804013835</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-137.988526149477</v>
+      </c>
+      <c r="D28" t="n">
+        <v>38.594261379259</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-149.1012826804936</v>
+      </c>
+      <c r="D29" t="n">
+        <v>29.50437135707439</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BRRTR27F_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRRTR27F_po_data.xlsx
@@ -709,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,16 +728,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -746,12 +736,6 @@
       <c r="B2" t="n">
         <v>154</v>
       </c>
-      <c r="C2" t="n">
-        <v>66.64667518387783</v>
-      </c>
-      <c r="D2" t="n">
-        <v>245.2917163484848</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -760,12 +744,6 @@
       <c r="B3" t="n">
         <v>113</v>
       </c>
-      <c r="C3" t="n">
-        <v>23.66901044722736</v>
-      </c>
-      <c r="D3" t="n">
-        <v>206.0355957847412</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -774,12 +752,6 @@
       <c r="B4" t="n">
         <v>108</v>
       </c>
-      <c r="C4" t="n">
-        <v>18.1646399270352</v>
-      </c>
-      <c r="D4" t="n">
-        <v>196.0562441034052</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -788,12 +760,6 @@
       <c r="B5" t="n">
         <v>102</v>
       </c>
-      <c r="C5" t="n">
-        <v>8.575117671241163</v>
-      </c>
-      <c r="D5" t="n">
-        <v>196.8211233126173</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -802,12 +768,6 @@
       <c r="B6" t="n">
         <v>96</v>
       </c>
-      <c r="C6" t="n">
-        <v>6.718584329734803</v>
-      </c>
-      <c r="D6" t="n">
-        <v>182.8771650578433</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -816,12 +776,6 @@
       <c r="B7" t="n">
         <v>90</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.013426710704346</v>
-      </c>
-      <c r="D7" t="n">
-        <v>177.8848702301342</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,12 +784,6 @@
       <c r="B8" t="n">
         <v>84</v>
       </c>
-      <c r="C8" t="n">
-        <v>-8.199653316591911</v>
-      </c>
-      <c r="D8" t="n">
-        <v>170.4326461896836</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -844,12 +792,6 @@
       <c r="B9" t="n">
         <v>79</v>
       </c>
-      <c r="C9" t="n">
-        <v>-13.2508490680484</v>
-      </c>
-      <c r="D9" t="n">
-        <v>164.1709991846542</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -858,12 +800,6 @@
       <c r="B10" t="n">
         <v>67</v>
       </c>
-      <c r="C10" t="n">
-        <v>-25.46044564532125</v>
-      </c>
-      <c r="D10" t="n">
-        <v>156.8764118863134</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -872,12 +808,6 @@
       <c r="B11" t="n">
         <v>61</v>
       </c>
-      <c r="C11" t="n">
-        <v>-24.59916978179405</v>
-      </c>
-      <c r="D11" t="n">
-        <v>150.6234302824076</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -886,12 +816,6 @@
       <c r="B12" t="n">
         <v>55</v>
       </c>
-      <c r="C12" t="n">
-        <v>-37.29497393621009</v>
-      </c>
-      <c r="D12" t="n">
-        <v>149.5496867032041</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -900,12 +824,6 @@
       <c r="B13" t="n">
         <v>50</v>
       </c>
-      <c r="C13" t="n">
-        <v>-41.68327971620437</v>
-      </c>
-      <c r="D13" t="n">
-        <v>137.72042972618</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -914,12 +832,6 @@
       <c r="B14" t="n">
         <v>44</v>
       </c>
-      <c r="C14" t="n">
-        <v>-40.53864606650357</v>
-      </c>
-      <c r="D14" t="n">
-        <v>131.0141990782542</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -928,12 +840,6 @@
       <c r="B15" t="n">
         <v>38</v>
       </c>
-      <c r="C15" t="n">
-        <v>-47.39856438162433</v>
-      </c>
-      <c r="D15" t="n">
-        <v>126.3924545461688</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -942,12 +848,6 @@
       <c r="B16" t="n">
         <v>15</v>
       </c>
-      <c r="C16" t="n">
-        <v>-75.56567095586924</v>
-      </c>
-      <c r="D16" t="n">
-        <v>106.1266264402587</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -956,12 +856,6 @@
       <c r="B17" t="n">
         <v>9</v>
       </c>
-      <c r="C17" t="n">
-        <v>-78.89004383049351</v>
-      </c>
-      <c r="D17" t="n">
-        <v>100.7535135411421</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -970,12 +864,6 @@
       <c r="B18" t="n">
         <v>3</v>
       </c>
-      <c r="C18" t="n">
-        <v>-82.90860802206824</v>
-      </c>
-      <c r="D18" t="n">
-        <v>97.00222412033571</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -984,12 +872,6 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>-89.29047862616092</v>
-      </c>
-      <c r="D19" t="n">
-        <v>83.47932226721601</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -998,12 +880,6 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>-96.64985894986765</v>
-      </c>
-      <c r="D20" t="n">
-        <v>82.18657855625456</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1012,12 +888,6 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
-        <v>-104.5604476617452</v>
-      </c>
-      <c r="D21" t="n">
-        <v>71.18954415786791</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1026,12 +896,6 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
-        <v>-103.6408580790045</v>
-      </c>
-      <c r="D22" t="n">
-        <v>60.75939136988941</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1040,12 +904,6 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
-        <v>-116.4084572110623</v>
-      </c>
-      <c r="D23" t="n">
-        <v>62.27176552684252</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1054,12 +912,6 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>-119.2862881485677</v>
-      </c>
-      <c r="D24" t="n">
-        <v>55.33959952294895</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1068,12 +920,6 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
-        <v>-121.6553053385115</v>
-      </c>
-      <c r="D25" t="n">
-        <v>52.33076441433511</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1082,12 +928,6 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
-        <v>-130.0593672999628</v>
-      </c>
-      <c r="D26" t="n">
-        <v>47.8453093169168</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1096,12 +936,6 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="n">
-        <v>-132.164936462561</v>
-      </c>
-      <c r="D27" t="n">
-        <v>36.90865804013835</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1110,12 +944,6 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="n">
-        <v>-137.988526149477</v>
-      </c>
-      <c r="D28" t="n">
-        <v>38.594261379259</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1123,12 +951,6 @@
       </c>
       <c r="B29" t="n">
         <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-149.1012826804936</v>
-      </c>
-      <c r="D29" t="n">
-        <v>29.50437135707439</v>
       </c>
     </row>
   </sheetData>
